--- a/src/test/resources/testdata/OpenEMRData.xlsx
+++ b/src/test/resources/testdata/OpenEMRData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk59159\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3436CEF-DE4D-41B6-BF13-6006D4900A1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{50479CB4-EF73-4BE6-92E4-56ACB63AF731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B0D65D0C-C304-475B-96C8-872C46F0445B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6015" xr2:uid="{B0D65D0C-C304-475B-96C8-872C46F0445B}"/>
   </bookViews>
   <sheets>
     <sheet name="validCredentialTest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,13 +41,13 @@
     <t>accountant</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>English (Indian)</t>
   </si>
   <si>
     <t>Calendar</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -406,7 +402,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,13 +432,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
